--- a/tables/datasource.xlsx
+++ b/tables/datasource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lenovo\Desktop\CASA-MSc-thesis\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D3AFC3-7481-4BD0-8044-370C26B37932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80FEDFF-8B6D-4CB6-A40E-350494685768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Dataset</t>
   </si>
@@ -140,6 +140,19 @@
   </si>
   <si>
     <t>Derived via OSMnx</t>
+  </si>
+  <si>
+    <t>Point / Site</t>
+  </si>
+  <si>
+    <t>Transport for London (TfL)</t>
+  </si>
+  <si>
+    <t>Manual counts of cycling flows, aggregated to weekday daily volumes</t>
+  </si>
+  <si>
+    <t>TfL Active Travel Counts (W1, spring)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -196,12 +209,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -482,16 +494,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="17.77734375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="5" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -630,6 +641,23 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="9" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2024</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
